--- a/docs/IcoSem2023Program.xlsx
+++ b/docs/IcoSem2023Program.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da9d7721ee648c09/IcoSem/2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianjoo/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75D8CE56-D9A4-FF4F-8C2C-E36E9874D3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10F3621-101D-D640-919F-41EB063D9CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1000" windowWidth="27900" windowHeight="15640" xr2:uid="{15664DC0-5D57-9445-AD8A-EC4DED7EAED3}"/>
+    <workbookView xWindow="640" yWindow="880" windowWidth="27900" windowHeight="15640" xr2:uid="{15664DC0-5D57-9445-AD8A-EC4DED7EAED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,20 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>KRAJINOVIĆ, Ana and HACIMUSAOĞLU, Irmak and COHN, Neil</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Iconicity of quantity in comics</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MADUREIRA, S. and ANDREASSA, J. and BRISOLA, E. and CROCHIQUIA, A. and FONTES, M. and PIRES, M. and SCARPELLY, R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Vocal and visual symbolism</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -78,10 +70,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NGAI, C. H. and TIAN, Z.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sound symbolism through the ages: a longitudinal analysis of vowel and tonal patterns in Chinese names across generations</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -98,10 +86,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/tʃ/ as a phonestheme in Mexican Spanish: origins and phonosemantic fields</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ERBEN JOHANSSON, Niklas</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -118,18 +102,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>VAN HOEY, Thomas and YU, Xiaoyu and PAN, Tung-Le and DO, Youngah</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>What ratings and corpus data reveal about the vividness of Mandarin ABB words</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SCHMITZ, Dominic and CICEK, Defne and NGUYEN, Anh Kim and ROTTLEB, Daniel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>In sound symbolic effects, visual dimensions interact: the case of vowel quality and cuteness</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -150,15 +126,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Author</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multimodality, iconcity, and visual lexicons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COHN, Neil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOO, Ian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closing remarks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome and self-introductions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Break 1 (30min)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Break 3 (60min)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Break 4 (60min)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Break 5 (30min)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Break 2 (30min)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*NGAI, C. H. and TIAN, Z.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*KRAJINOVIĆ, Ana and HACIMUSAOĞLU, Irmak and COHN, Neil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHMITZ, Dominic and *CICEK, Defne and *NGUYEN, Anh Kim and ROTTLEB, Daniel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is /tʃ/ a phonaesteme in Mexican Spanish? Origins and phonosemantic fields</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*VAN HOEY, Thomas and YU, Xiaoyu and PAN, Tung-Le and DO, Youngah</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*MADUREIRA, S. and ANDREASSA, J. and BRISOLA, E. and CROCHIQUIA, A. and FONTES, M. and PIRES, M. and SCARPELLY, R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time (GMT)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -211,11 +251,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,157 +575,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E6F784-450F-BE40-B533-3D13D3C3183B}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="97" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="107.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2">
+        <v>0.29166666666666669</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.35416666666666669</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.39583333333333331</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.4375</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.45833333333333331</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.47916666666666669</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.52083333333333337</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.5625</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.58333333333333337</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.79166666666666663</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C29">
+    <sortCondition ref="C1:C29"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/IcoSem2023Program.xlsx
+++ b/docs/IcoSem2023Program.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianjoo/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10F3621-101D-D640-919F-41EB063D9CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C5B019-79B3-0F4F-B91D-028D01BBA9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="880" windowWidth="27900" windowHeight="15640" xr2:uid="{15664DC0-5D57-9445-AD8A-EC4DED7EAED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Cross-modal correspondences between vowel intrinsic duration and the length of musical notes: implications for the mil/mal effect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sound symbolism through the ages: a longitudinal analysis of vowel and tonal patterns in Chinese names across generations</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -162,43 +158,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Break 4 (60min)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Break 5 (30min)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Break 2 (30min)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>*NGAI, C. H. and TIAN, Z.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*KRAJINOVIĆ, Ana and HACIMUSAOĞLU, Irmak and COHN, Neil</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHMITZ, Dominic and *CICEK, Defne and *NGUYEN, Anh Kim and ROTTLEB, Daniel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Is /tʃ/ a phonaesteme in Mexican Spanish? Origins and phonosemantic fields</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>*VAN HOEY, Thomas and YU, Xiaoyu and PAN, Tung-Le and DO, Youngah</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*MADUREIRA, S. and ANDREASSA, J. and BRISOLA, E. and CROCHIQUIA, A. and FONTES, M. and PIRES, M. and SCARPELLY, R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Time (GMT)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Break 4 (30min)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Break 5 (60min)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Correspondences between vowel intrinsic duration and the length of musical notes: implications for the mil/mal effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>※NGAI, C. H. and TIAN, Z.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>※VAN HOEY, Thomas and YU, Xiaoyu and PAN, Tung-Le and DO, Youngah</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHMITZ, Dominic and ※CICEK, Defne and ※NGUYEN, Anh Kim and ROTTLEB, Daniel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>※KRAJINOVIĆ, Ana and HACIMUSAOĞLU, Irmak and COHN, Neil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>※MADUREIRA, S. and ANDREASSA, J. and BRISOLA, E. and CROCHIQUIA, A. and FONTES, M. and PIRES, M. and SCARPELLY, R</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +578,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -590,21 +590,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
         <v>0.29166666666666669</v>
@@ -612,10 +612,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>0.3125</v>
@@ -623,10 +623,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2">
         <v>0.33333333333333331</v>
@@ -634,10 +634,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2">
         <v>0.35416666666666669</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2">
         <v>0.375</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C7" s="2">
         <v>0.39583333333333331</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2">
         <v>0.4375</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2">
         <v>0.5</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2">
         <v>0.52083333333333337</v>
@@ -713,10 +713,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
         <v>0.5625</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2">
         <v>0.60416666666666663</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2">
         <v>0.625</v>
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2">
         <v>0.64583333333333337</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2">
         <v>0.66666666666666663</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2">
         <v>0.6875</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2">
         <v>0.72916666666666663</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <v>0.75</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2">
         <v>0.77083333333333337</v>
@@ -817,10 +817,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2">
         <v>0.79166666666666663</v>

--- a/docs/IcoSem2023Program.xlsx
+++ b/docs/IcoSem2023Program.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianjoo/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C5B019-79B3-0F4F-B91D-028D01BBA9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2DB096-1178-7949-878E-6D1E169C5D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="880" windowWidth="27900" windowHeight="15640" xr2:uid="{15664DC0-5D57-9445-AD8A-EC4DED7EAED3}"/>
   </bookViews>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ZOURI, Yassine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Phonetic exploration of sound symbolism in Moroccan Arabic: high vowels and size perception</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -199,6 +195,10 @@
   </si>
   <si>
     <t>※MADUREIRA, S. and ANDREASSA, J. and BRISOLA, E. and CROCHIQUIA, A. and FONTES, M. and PIRES, M. and SCARPELLY, R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ZOURI, Yassine and OULGHAZI, Rachid and HAMDI, Rachid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +578,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -590,21 +590,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
         <v>0.29166666666666669</v>
@@ -612,10 +612,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2">
         <v>0.3125</v>
@@ -623,10 +623,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>0.33333333333333331</v>
@@ -634,10 +634,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2">
         <v>0.35416666666666669</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2">
         <v>0.375</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>0.39583333333333331</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2">
         <v>0.4375</v>
@@ -672,10 +672,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
         <v>0.45833333333333331</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2">
         <v>0.47916666666666669</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2">
         <v>0.5</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
         <v>0.52083333333333337</v>
@@ -713,10 +713,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2">
         <v>0.5625</v>
@@ -724,10 +724,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2">
         <v>0.58333333333333337</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2">
         <v>0.60416666666666663</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2">
         <v>0.625</v>
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2">
         <v>0.64583333333333337</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2">
         <v>0.66666666666666663</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
         <v>0.6875</v>
@@ -784,10 +784,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2">
         <v>0.72916666666666663</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2">
         <v>0.75</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2">
         <v>0.77083333333333337</v>
@@ -817,10 +817,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
         <v>0.79166666666666663</v>
